--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_6_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/75/Output_6_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1501941.154600725</v>
+        <v>-1409137.602263787</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8055467.315111706</v>
+        <v>6549343.963692139</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729601</v>
+        <v>340528.8729729602</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12502579.41309023</v>
+        <v>12589820.5918422</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>384.8150404180149</v>
       </c>
       <c r="G2" t="n">
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>4.235841136991849</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8201079258493</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>16.8201079258493</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>14.81515106108805</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>16.8201079258493</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>14.81515106108805</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16.8201079258493</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>29.16604059314762</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>231.3474543231443</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
@@ -911,7 +911,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>231.3474543231443</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>165.5746567718932</v>
+        <v>360.1544034076178</v>
       </c>
       <c r="Y5" t="n">
-        <v>231.3474543231443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>118.8605574827553</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -1026,22 +1026,22 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>66.05051157173011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>231.3474543231443</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>231.3474543231443</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>166.1704505107266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1145,13 +1145,13 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>161.6520855975005</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1196,10 +1196,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.67131275700363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,22 +1215,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>26.5078454592859</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>53.42804917767922</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>18.07668889684925</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>368.5981234669177</v>
+        <v>370.4951974799239</v>
       </c>
       <c r="C11" t="n">
-        <v>368.5025003789357</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D11" t="n">
-        <v>362.8984462069432</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E11" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F11" t="n">
-        <v>379.2992635249224</v>
+        <v>381.1963375379287</v>
       </c>
       <c r="G11" t="n">
-        <v>367.1201568651692</v>
+        <v>369.0172308781755</v>
       </c>
       <c r="H11" t="n">
-        <v>270.2785679976323</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>47.96740065517071</v>
+        <v>49.86447466817695</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.40742005291328</v>
+        <v>98.30449406591953</v>
       </c>
       <c r="T11" t="n">
-        <v>182.4635748116829</v>
+        <v>184.3606488246892</v>
       </c>
       <c r="U11" t="n">
-        <v>118.3489232652961</v>
+        <v>218.8661164351644</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>310.7154087289635</v>
       </c>
       <c r="W11" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682625</v>
       </c>
       <c r="X11" t="n">
-        <v>359.1161194518101</v>
+        <v>346.9931672488624</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334702</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>148.3018649291771</v>
+        <v>150.1989389421833</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.75866832598</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>122.2759278423985</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>76.57678195240331</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G13" t="n">
-        <v>128.0570427627852</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>110.590536241671</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>79.55881504879648</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.89914674042748</v>
+        <v>48.79622075343372</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T13" t="n">
-        <v>199.6324072321381</v>
+        <v>201.5294812451443</v>
       </c>
       <c r="U13" t="n">
-        <v>242.4493215784102</v>
+        <v>244.3463955914165</v>
       </c>
       <c r="V13" t="n">
-        <v>233.6260432089464</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W13" t="n">
-        <v>238.7581234452875</v>
+        <v>240.6551974582937</v>
       </c>
       <c r="X13" t="n">
-        <v>198.4395791179866</v>
+        <v>60.51587978908817</v>
       </c>
       <c r="Y13" t="n">
-        <v>184.9674972241961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.5981234669177</v>
+        <v>84.29952925333222</v>
       </c>
       <c r="C14" t="n">
-        <v>368.5025003789357</v>
+        <v>370.3995743919419</v>
       </c>
       <c r="D14" t="n">
-        <v>362.8984462069432</v>
+        <v>364.7955202199494</v>
       </c>
       <c r="E14" t="n">
-        <v>372.6759689273454</v>
+        <v>374.5730429403516</v>
       </c>
       <c r="F14" t="n">
-        <v>379.2992635249224</v>
+        <v>381.1963375379287</v>
       </c>
       <c r="G14" t="n">
-        <v>367.1201568651692</v>
+        <v>369.0172308781755</v>
       </c>
       <c r="H14" t="n">
-        <v>270.2785679976323</v>
+        <v>272.1756420106385</v>
       </c>
       <c r="I14" t="n">
-        <v>47.96740065517071</v>
+        <v>49.86447466817692</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>96.40742005291328</v>
+        <v>98.3044940659195</v>
       </c>
       <c r="T14" t="n">
-        <v>134.1412403906737</v>
+        <v>184.3606488246891</v>
       </c>
       <c r="U14" t="n">
-        <v>216.9690424221581</v>
+        <v>218.8661164351643</v>
       </c>
       <c r="V14" t="n">
-        <v>308.8183347159572</v>
+        <v>310.7154087289634</v>
       </c>
       <c r="W14" t="n">
-        <v>342.4018534552562</v>
+        <v>344.2989274682625</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>361.0131934648164</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.4064619204639</v>
+        <v>361.3035359334701</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>148.3018649291771</v>
+        <v>150.1989389421833</v>
       </c>
       <c r="C16" t="n">
-        <v>131.8615943129738</v>
+        <v>133.75866832598</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>122.2759278423984</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>123.6779365924431</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>128.0570427627852</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>147.007006037962</v>
+        <v>148.9040800509682</v>
       </c>
       <c r="T16" t="n">
-        <v>199.6324072321381</v>
+        <v>201.5294812451443</v>
       </c>
       <c r="U16" t="n">
-        <v>242.4493215784102</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>188.8239077925124</v>
+        <v>235.5231172219526</v>
       </c>
       <c r="W16" t="n">
-        <v>238.7581234452875</v>
+        <v>160.400275147193</v>
       </c>
       <c r="X16" t="n">
-        <v>198.4395791179866</v>
+        <v>200.3366531309928</v>
       </c>
       <c r="Y16" t="n">
-        <v>184.9674972241961</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>341.4355598753964</v>
+        <v>351.4154862648177</v>
       </c>
       <c r="C17" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768357</v>
       </c>
       <c r="D17" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048432</v>
       </c>
       <c r="E17" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252454</v>
       </c>
       <c r="F17" t="n">
-        <v>352.1366999334011</v>
+        <v>362.1166263228225</v>
       </c>
       <c r="G17" t="n">
-        <v>339.9575932736479</v>
+        <v>349.9375196630693</v>
       </c>
       <c r="H17" t="n">
-        <v>243.116004406111</v>
+        <v>253.0959307955324</v>
       </c>
       <c r="I17" t="n">
-        <v>20.80483706364942</v>
+        <v>30.78476345307075</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>69.24485646139199</v>
+        <v>79.22478285081331</v>
       </c>
       <c r="T17" t="n">
-        <v>155.3010112201616</v>
+        <v>165.2809376095829</v>
       </c>
       <c r="U17" t="n">
-        <v>189.8064788306368</v>
+        <v>199.7864052200582</v>
       </c>
       <c r="V17" t="n">
-        <v>281.6557711244359</v>
+        <v>291.6356975138573</v>
       </c>
       <c r="W17" t="n">
-        <v>315.2392898637349</v>
+        <v>325.2192162531563</v>
       </c>
       <c r="X17" t="n">
-        <v>331.9535558602888</v>
+        <v>341.9334822497102</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.2438983289426</v>
+        <v>342.223824718364</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270771</v>
       </c>
       <c r="C19" t="n">
-        <v>104.6990307214525</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>93.21629023787224</v>
+        <v>103.1962166272922</v>
       </c>
       <c r="E19" t="n">
-        <v>94.61829898791557</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>98.3014066380665</v>
+        <v>108.2813330274878</v>
       </c>
       <c r="G19" t="n">
-        <v>100.8944791712639</v>
+        <v>92.2221589839808</v>
       </c>
       <c r="H19" t="n">
-        <v>83.42797265014975</v>
+        <v>93.40789903957108</v>
       </c>
       <c r="I19" t="n">
-        <v>50.49917744426895</v>
+        <v>60.47910383369028</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.73658314890619</v>
+        <v>29.71650953832752</v>
       </c>
       <c r="S19" t="n">
-        <v>119.8444424464407</v>
+        <v>129.824368835862</v>
       </c>
       <c r="T19" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300381</v>
       </c>
       <c r="U19" t="n">
-        <v>215.2867579868889</v>
+        <v>225.2666843763103</v>
       </c>
       <c r="V19" t="n">
-        <v>206.4634796174251</v>
+        <v>216.4434060068464</v>
       </c>
       <c r="W19" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431875</v>
       </c>
       <c r="X19" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158866</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220961</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648178</v>
       </c>
       <c r="C20" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768358</v>
       </c>
       <c r="D20" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048433</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252455</v>
       </c>
       <c r="F20" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228225</v>
       </c>
       <c r="G20" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630693</v>
       </c>
       <c r="H20" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955324</v>
       </c>
       <c r="I20" t="n">
-        <v>20.80483706364944</v>
+        <v>30.78476345307079</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.24485646139202</v>
+        <v>79.22478285081337</v>
       </c>
       <c r="T20" t="n">
-        <v>155.3010112201616</v>
+        <v>165.280937609583</v>
       </c>
       <c r="U20" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200582</v>
       </c>
       <c r="V20" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138573</v>
       </c>
       <c r="W20" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531563</v>
       </c>
       <c r="X20" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497102</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.2438983289427</v>
+        <v>342.223824718364</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>121.1393013376558</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108739</v>
       </c>
       <c r="D22" t="n">
-        <v>93.21629023787095</v>
+        <v>103.1962166272923</v>
       </c>
       <c r="E22" t="n">
-        <v>94.61829898791559</v>
+        <v>104.5982253773369</v>
       </c>
       <c r="F22" t="n">
-        <v>98.30140663806652</v>
+        <v>1.471131689648579</v>
       </c>
       <c r="G22" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606852</v>
       </c>
       <c r="H22" t="n">
-        <v>83.42797265014978</v>
+        <v>93.40789903957113</v>
       </c>
       <c r="I22" t="n">
-        <v>50.49917744426898</v>
+        <v>60.47910383369033</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>19.73658314890622</v>
+        <v>29.71650953832757</v>
       </c>
       <c r="S22" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358621</v>
       </c>
       <c r="T22" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300381</v>
       </c>
       <c r="U22" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763103</v>
       </c>
       <c r="V22" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068465</v>
       </c>
       <c r="W22" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431876</v>
       </c>
       <c r="X22" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158867</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220962</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>341.4355598753965</v>
+        <v>351.4154862648178</v>
       </c>
       <c r="C23" t="n">
-        <v>341.3399367874144</v>
+        <v>351.3198631768358</v>
       </c>
       <c r="D23" t="n">
-        <v>335.7358826154219</v>
+        <v>345.7158090048433</v>
       </c>
       <c r="E23" t="n">
-        <v>345.5134053358241</v>
+        <v>355.4933317252455</v>
       </c>
       <c r="F23" t="n">
-        <v>352.1366999334012</v>
+        <v>362.1166263228225</v>
       </c>
       <c r="G23" t="n">
-        <v>339.957593273648</v>
+        <v>349.9375196630693</v>
       </c>
       <c r="H23" t="n">
-        <v>243.1160044061111</v>
+        <v>253.0959307955324</v>
       </c>
       <c r="I23" t="n">
-        <v>20.80483706364944</v>
+        <v>30.78476345307079</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.24485646139202</v>
+        <v>79.22478285081337</v>
       </c>
       <c r="T23" t="n">
-        <v>155.3010112201616</v>
+        <v>165.280937609583</v>
       </c>
       <c r="U23" t="n">
-        <v>189.8064788306369</v>
+        <v>199.7864052200582</v>
       </c>
       <c r="V23" t="n">
-        <v>281.655771124436</v>
+        <v>291.6356975138573</v>
       </c>
       <c r="W23" t="n">
-        <v>315.239289863735</v>
+        <v>325.2192162531563</v>
       </c>
       <c r="X23" t="n">
-        <v>331.9535558602889</v>
+        <v>341.9334822497102</v>
       </c>
       <c r="Y23" t="n">
-        <v>332.2438983289427</v>
+        <v>342.223824718364</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.1393013376558</v>
+        <v>131.1192277270772</v>
       </c>
       <c r="C25" t="n">
-        <v>104.6990307214525</v>
+        <v>114.6789571108739</v>
       </c>
       <c r="D25" t="n">
-        <v>93.21629023787095</v>
+        <v>103.1962166272923</v>
       </c>
       <c r="E25" t="n">
-        <v>94.61829898791559</v>
+        <v>65.14574271192652</v>
       </c>
       <c r="F25" t="n">
-        <v>98.30140663806652</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>100.8944791712639</v>
+        <v>110.8744055606852</v>
       </c>
       <c r="H25" t="n">
-        <v>83.42797265014978</v>
+        <v>93.40789903957113</v>
       </c>
       <c r="I25" t="n">
-        <v>50.49917744426898</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.73658314890622</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>119.8444424464407</v>
+        <v>129.8243688358621</v>
       </c>
       <c r="T25" t="n">
-        <v>172.4698436406168</v>
+        <v>182.4497700300381</v>
       </c>
       <c r="U25" t="n">
-        <v>215.286757986889</v>
+        <v>225.2666843763103</v>
       </c>
       <c r="V25" t="n">
-        <v>206.4634796174252</v>
+        <v>216.4434060068465</v>
       </c>
       <c r="W25" t="n">
-        <v>211.5955598537662</v>
+        <v>221.5754862431876</v>
       </c>
       <c r="X25" t="n">
-        <v>171.2770155264653</v>
+        <v>181.2569419158867</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.8049336326748</v>
+        <v>167.7848600220962</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>104.4834163879008</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>139.8834969875627</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>103.1885574966857</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
@@ -2810,7 +2810,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>103.1885574966858</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>99.70008116169389</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
@@ -3013,7 +3013,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>192.9893998987849</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>341.4355598753965</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>341.3399367874144</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>352.1366999334012</v>
+        <v>362.4364299854676</v>
       </c>
       <c r="G32" t="n">
         <v>339.957593273648</v>
@@ -3047,7 +3047,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I32" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364947</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139205</v>
       </c>
       <c r="T32" t="n">
         <v>155.3010112201617</v>
       </c>
       <c r="U32" t="n">
-        <v>189.8064788306369</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>281.655771124436</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>315.239289863735</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>331.9535558602889</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>332.2438983289427</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C34" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D34" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787098</v>
       </c>
       <c r="E34" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791562</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806655</v>
       </c>
       <c r="G34" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H34" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014981</v>
       </c>
       <c r="I34" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426901</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890625</v>
       </c>
       <c r="S34" t="n">
         <v>119.8444424464407</v>
@@ -3755,7 +3755,7 @@
         <v>339.957593273648</v>
       </c>
       <c r="H41" t="n">
-        <v>243.1160044061113</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I41" t="n">
         <v>20.80483706364944</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>44.1096480734034</v>
+        <v>538.3143133631511</v>
       </c>
       <c r="C2" t="n">
-        <v>38.02546142707759</v>
+        <v>532.2301267168252</v>
       </c>
       <c r="D2" t="n">
-        <v>37.60193556054219</v>
+        <v>531.8066008502898</v>
       </c>
       <c r="E2" t="n">
-        <v>27.30212411784296</v>
+        <v>521.5067894075905</v>
       </c>
       <c r="F2" t="n">
-        <v>10.31211611193457</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G2" t="n">
-        <v>5.624236045170822</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H2" t="n">
-        <v>1.345608634067944</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>17.99751548065875</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>34.64942232724955</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>34.64942232724955</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
-        <v>34.64942232724955</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>34.64942232724955</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>34.64942232724955</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>50.62852485680639</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>67.2804317033972</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>50.29042369748881</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>50.29042369748881</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>50.29042369748881</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W2" t="n">
-        <v>50.29042369748881</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X2" t="n">
-        <v>50.29042369748881</v>
+        <v>945.4317620391464</v>
       </c>
       <c r="Y2" t="n">
-        <v>50.29042369748881</v>
+        <v>544.4950889872365</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.29042369748881</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>50.29042369748881</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D3" t="n">
-        <v>50.29042369748881</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>50.29042369748881</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>50.29042369748881</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G3" t="n">
-        <v>33.30041569158043</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>16.31040768567204</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I3" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>17.99751548065875</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>17.99751548065875</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>33.97661801021559</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>50.62852485680639</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N3" t="n">
-        <v>67.2804317033972</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O3" t="n">
-        <v>67.2804317033972</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>67.2804317033972</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>50.29042369748881</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>50.29042369748881</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>50.29042369748881</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>50.29042369748881</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>50.29042369748881</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>50.29042369748881</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>50.29042369748881</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.30041569158043</v>
+        <v>377.4895839572943</v>
       </c>
       <c r="C4" t="n">
-        <v>33.30041569158043</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="D4" t="n">
-        <v>16.31040768567204</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E4" t="n">
-        <v>16.31040768567204</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F4" t="n">
-        <v>16.31040768567204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>16.31040768567204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>1.345608634067944</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>1.345608634067944</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>17.99751548065875</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>33.97661801021559</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>33.97661801021559</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>33.97661801021559</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>50.62852485680639</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>67.2804317033972</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.2804317033972</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>50.29042369748881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>50.29042369748881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>33.30041569158043</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>33.30041569158043</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V4" t="n">
-        <v>33.30041569158043</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W4" t="n">
-        <v>33.30041569158043</v>
+        <v>1028.26885110289</v>
       </c>
       <c r="X4" t="n">
-        <v>33.30041569158043</v>
+        <v>789.9249889625739</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.30041569158043</v>
+        <v>565.1892903513386</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284.5933190238637</v>
+        <v>795.1993990705208</v>
       </c>
       <c r="C5" t="n">
-        <v>50.90902172775831</v>
+        <v>789.115212424195</v>
       </c>
       <c r="D5" t="n">
-        <v>50.48549586122292</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E5" t="n">
-        <v>40.18568441852368</v>
+        <v>374.3514710745562</v>
       </c>
       <c r="F5" t="n">
-        <v>23.1956764126153</v>
+        <v>357.3614630686478</v>
       </c>
       <c r="G5" t="n">
-        <v>18.50779634585155</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H5" t="n">
-        <v>18.50779634585155</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>18.50779634585155</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>247.5417761257644</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>247.5417761257644</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>247.5417761257644</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>247.5417761257644</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>426.7652120431867</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O5" t="n">
-        <v>655.7991918230996</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>655.7991918230996</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>884.8331716030125</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>925.3898172925773</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>925.3898172925773</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>925.3898172925773</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>691.7055199964718</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>691.7055199964718</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>691.7055199964718</v>
+        <v>1569.212905409372</v>
       </c>
       <c r="X5" t="n">
-        <v>524.4583919440545</v>
+        <v>1205.42057873501</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.7740946479491</v>
+        <v>1205.42057873501</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697.3386382323858</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>563.3435669813316</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>446.446409200724</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>325.953593193052</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>216.9937133755566</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>110.0036006898953</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>39.25638772561138</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>18.50779634585155</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>211.3206539084848</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>440.3546336883977</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>467.3218577327515</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M6" t="n">
-        <v>467.3218577327515</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N6" t="n">
-        <v>467.3218577327515</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>696.3558375126644</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P6" t="n">
-        <v>696.3558375126644</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="Q6" t="n">
-        <v>925.3898172925773</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>925.3898172925773</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>817.3998074068861</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>817.3998074068861</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>817.3998074068861</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>817.3998074068861</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>817.3998074068861</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
-        <v>817.3998074068861</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>817.3998074068861</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18.50779634585155</v>
+        <v>770.9523081651339</v>
       </c>
       <c r="C7" t="n">
-        <v>18.50779634585155</v>
+        <v>599.8589357268504</v>
       </c>
       <c r="D7" t="n">
-        <v>18.50779634585155</v>
+        <v>440.3642910497604</v>
       </c>
       <c r="E7" t="n">
-        <v>18.50779634585155</v>
+        <v>440.3642910497604</v>
       </c>
       <c r="F7" t="n">
-        <v>18.50779634585155</v>
+        <v>275.7331651603517</v>
       </c>
       <c r="G7" t="n">
-        <v>18.50779634585155</v>
+        <v>108.4827740858951</v>
       </c>
       <c r="H7" t="n">
-        <v>18.50779634585155</v>
+        <v>108.4827740858951</v>
       </c>
       <c r="I7" t="n">
-        <v>18.50779634585155</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>18.50779634585155</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>18.50779634585155</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>247.5417761257644</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>467.3218577327515</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>696.3558375126644</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>925.3898172925773</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>925.3898172925773</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>925.3898172925773</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>840.117098967977</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>653.7253308478872</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>420.0410335517818</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>420.0410335517818</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V7" t="n">
-        <v>420.0410335517818</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W7" t="n">
-        <v>420.0410335517818</v>
+        <v>1009.29617030545</v>
       </c>
       <c r="X7" t="n">
-        <v>186.3567362556764</v>
+        <v>770.9523081651339</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.50779634585155</v>
+        <v>770.9523081651339</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>380.6061317805319</v>
+        <v>733.9275993281359</v>
       </c>
       <c r="C8" t="n">
-        <v>374.5219451342061</v>
+        <v>727.84341268181</v>
       </c>
       <c r="D8" t="n">
-        <v>374.0984192676707</v>
+        <v>727.4198868152746</v>
       </c>
       <c r="E8" t="n">
-        <v>363.7986078249715</v>
+        <v>717.1200753725753</v>
       </c>
       <c r="F8" t="n">
-        <v>346.8085998190631</v>
+        <v>700.1300673666669</v>
       </c>
       <c r="G8" t="n">
-        <v>342.1207197522994</v>
+        <v>291.4017832594991</v>
       </c>
       <c r="H8" t="n">
-        <v>31.21222238001735</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>285.3976938477716</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>671.6489458004863</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>812.642214563296</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N8" t="n">
-        <v>1198.893466516011</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O8" t="n">
-        <v>1198.893466516011</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P8" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1210.773564337348</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>827.0132634725169</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X8" t="n">
-        <v>432.9195465531059</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.7869074046174</v>
+        <v>740.1083749522213</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300.9427749225932</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>166.9477036715389</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>166.9477036715389</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>166.9477036715389</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>57.98782385404351</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>31.21222238001735</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>610.2763318953653</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L9" t="n">
-        <v>610.2763318953653</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M9" t="n">
-        <v>610.2763318953653</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N9" t="n">
-        <v>824.5154023641696</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="O9" t="n">
-        <v>824.5154023641696</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P9" t="n">
-        <v>1210.766654316884</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S9" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T9" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U9" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>441.2458075581799</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522.5883840209726</v>
+        <v>1104.321943548406</v>
       </c>
       <c r="C10" t="n">
-        <v>522.5883840209726</v>
+        <v>933.2285711101226</v>
       </c>
       <c r="D10" t="n">
-        <v>363.0937393438827</v>
+        <v>773.7339264330326</v>
       </c>
       <c r="E10" t="n">
-        <v>363.0937393438827</v>
+        <v>612.8231113013521</v>
       </c>
       <c r="F10" t="n">
-        <v>198.4626134544739</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="H10" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I10" t="n">
-        <v>31.21222238001735</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J10" t="n">
-        <v>45.29477178522787</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K10" t="n">
-        <v>199.8470995074659</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L10" t="n">
-        <v>459.7441997875264</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M10" t="n">
-        <v>749.0082562280197</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N10" t="n">
-        <v>1029.84703862227</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O10" t="n">
-        <v>1289.407648948744</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P10" t="n">
-        <v>1495.083089198357</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q10" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R10" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T10" t="n">
-        <v>1542.351837286878</v>
+        <v>1848.705542456804</v>
       </c>
       <c r="U10" t="n">
-        <v>1259.553689833003</v>
+        <v>1565.907395002929</v>
       </c>
       <c r="V10" t="n">
-        <v>985.6679447725246</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="W10" t="n">
-        <v>985.6679447725246</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="X10" t="n">
-        <v>747.3240826322079</v>
+        <v>1292.02164994245</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.5883840209726</v>
+        <v>1292.02164994245</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2273.012939687287</v>
+        <v>2014.587642300793</v>
       </c>
       <c r="C11" t="n">
-        <v>1900.788191829776</v>
+        <v>1640.446658066508</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.224104752056</v>
+        <v>1271.966334612014</v>
       </c>
       <c r="E11" t="n">
-        <v>1157.783732098172</v>
+        <v>893.6097255813559</v>
       </c>
       <c r="F11" t="n">
-        <v>774.6531628810783</v>
+        <v>508.5629199874884</v>
       </c>
       <c r="G11" t="n">
-        <v>403.8247216031295</v>
+        <v>135.8182423327654</v>
       </c>
       <c r="H11" t="n">
-        <v>130.8160670600665</v>
+        <v>135.8182423327654</v>
       </c>
       <c r="I11" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J11" t="n">
-        <v>336.549618674113</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K11" t="n">
-        <v>341.6111460542108</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L11" t="n">
-        <v>1054.202545866449</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M11" t="n">
-        <v>1830.521136858203</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N11" t="n">
-        <v>2583.702153496821</v>
+        <v>2737.999098293069</v>
       </c>
       <c r="O11" t="n">
-        <v>3227.333009913926</v>
+        <v>3381.629954710174</v>
       </c>
       <c r="P11" t="n">
-        <v>3756.489707833077</v>
+        <v>3910.786652629326</v>
       </c>
       <c r="Q11" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424618</v>
       </c>
       <c r="R11" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114183</v>
       </c>
       <c r="S11" t="n">
-        <v>4020.826127941254</v>
+        <v>4173.206836360729</v>
       </c>
       <c r="T11" t="n">
-        <v>3836.519486717332</v>
+        <v>3986.983958760033</v>
       </c>
       <c r="U11" t="n">
-        <v>3716.975119782689</v>
+        <v>3765.907073471988</v>
       </c>
       <c r="V11" t="n">
-        <v>3716.975119782689</v>
+        <v>3452.053125260914</v>
       </c>
       <c r="W11" t="n">
-        <v>3371.114661747077</v>
+        <v>3104.276430848528</v>
       </c>
       <c r="X11" t="n">
-        <v>3008.371106745249</v>
+        <v>2753.778282112303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2645.334276522558</v>
+        <v>2388.825215512838</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C12" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D12" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E12" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F12" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H12" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I12" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J12" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="K12" t="n">
-        <v>730.9832610342906</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="L12" t="n">
-        <v>1187.743466521715</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="M12" t="n">
-        <v>1187.743466521715</v>
+        <v>928.4271667968503</v>
       </c>
       <c r="N12" t="n">
-        <v>1187.743466521715</v>
+        <v>1802.085258908468</v>
       </c>
       <c r="O12" t="n">
-        <v>1187.743466521715</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="P12" t="n">
-        <v>1749.449359010245</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="Q12" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R12" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S12" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T12" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U12" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V12" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W12" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X12" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y12" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>400.7725926173279</v>
+        <v>553.0808491929595</v>
       </c>
       <c r="C13" t="n">
-        <v>400.7725926173279</v>
+        <v>417.9710832071211</v>
       </c>
       <c r="D13" t="n">
-        <v>400.7725926173279</v>
+        <v>294.4600449824761</v>
       </c>
       <c r="E13" t="n">
-        <v>400.7725926173279</v>
+        <v>294.4600449824761</v>
       </c>
       <c r="F13" t="n">
-        <v>323.4223078169205</v>
+        <v>165.8125255455124</v>
       </c>
       <c r="G13" t="n">
-        <v>194.071759571683</v>
+        <v>165.8125255455124</v>
       </c>
       <c r="H13" t="n">
-        <v>82.36414720635868</v>
+        <v>165.8125255455124</v>
       </c>
       <c r="I13" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J13" t="n">
-        <v>133.5923325684869</v>
+        <v>134.8001681915357</v>
       </c>
       <c r="K13" t="n">
-        <v>325.2902962476425</v>
+        <v>324.620028597815</v>
       </c>
       <c r="L13" t="n">
-        <v>622.3330324846206</v>
+        <v>619.784661561917</v>
       </c>
       <c r="M13" t="n">
-        <v>948.7427248820314</v>
+        <v>944.3162506864517</v>
       </c>
       <c r="N13" t="n">
-        <v>1266.727143233199</v>
+        <v>1260.422565764743</v>
       </c>
       <c r="O13" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P13" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q13" t="n">
-        <v>1908.928131482549</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R13" t="n">
-        <v>1861.555255987168</v>
+        <v>1847.70013232331</v>
       </c>
       <c r="S13" t="n">
-        <v>1861.555255987168</v>
+        <v>1697.291970655665</v>
       </c>
       <c r="T13" t="n">
-        <v>1659.906359793089</v>
+        <v>1493.726838084812</v>
       </c>
       <c r="U13" t="n">
-        <v>1415.008055168433</v>
+        <v>1246.912297083381</v>
       </c>
       <c r="V13" t="n">
-        <v>1179.022152937173</v>
+        <v>1009.010158475348</v>
       </c>
       <c r="W13" t="n">
-        <v>937.852331275267</v>
+        <v>765.9241004366679</v>
       </c>
       <c r="X13" t="n">
-        <v>737.4083119641696</v>
+        <v>704.7969491345589</v>
       </c>
       <c r="Y13" t="n">
-        <v>550.5724561821532</v>
+        <v>704.7969491345589</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2273.012939687287</v>
+        <v>2289.51253322063</v>
       </c>
       <c r="C14" t="n">
-        <v>1900.788191829776</v>
+        <v>1915.371548986345</v>
       </c>
       <c r="D14" t="n">
-        <v>1534.224104752056</v>
+        <v>1546.891225531851</v>
       </c>
       <c r="E14" t="n">
-        <v>1157.783732098172</v>
+        <v>1168.534616501192</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6531628810783</v>
+        <v>783.4878109073251</v>
       </c>
       <c r="G14" t="n">
-        <v>403.8247216031294</v>
+        <v>410.7431332526023</v>
       </c>
       <c r="H14" t="n">
-        <v>130.8160670600665</v>
+        <v>135.8182423327654</v>
       </c>
       <c r="I14" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J14" t="n">
-        <v>82.36414720635868</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K14" t="n">
-        <v>620.5236483153982</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L14" t="n">
-        <v>1333.115048127636</v>
+        <v>1208.499490662698</v>
       </c>
       <c r="M14" t="n">
-        <v>2109.43363911939</v>
+        <v>1984.818081654451</v>
       </c>
       <c r="N14" t="n">
-        <v>2862.614655758008</v>
+        <v>2737.999098293069</v>
       </c>
       <c r="O14" t="n">
-        <v>3506.245512175113</v>
+        <v>3381.629954710174</v>
       </c>
       <c r="P14" t="n">
-        <v>4035.402210094265</v>
+        <v>3910.786652629326</v>
       </c>
       <c r="Q14" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424618</v>
       </c>
       <c r="R14" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114183</v>
       </c>
       <c r="S14" t="n">
-        <v>4020.826127941254</v>
+        <v>4173.206836360729</v>
       </c>
       <c r="T14" t="n">
-        <v>3885.329925526432</v>
+        <v>3986.983958760033</v>
       </c>
       <c r="U14" t="n">
-        <v>3666.169276615161</v>
+        <v>3765.907073471988</v>
       </c>
       <c r="V14" t="n">
-        <v>3354.231564780861</v>
+        <v>3452.053125260914</v>
       </c>
       <c r="W14" t="n">
-        <v>3008.371106745248</v>
+        <v>3104.276430848528</v>
       </c>
       <c r="X14" t="n">
-        <v>3008.371106745248</v>
+        <v>2739.616639469925</v>
       </c>
       <c r="Y14" t="n">
-        <v>2645.334276522558</v>
+        <v>2374.66357287046</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C15" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D15" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E15" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F15" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I15" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J15" t="n">
-        <v>275.1770047689919</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="K15" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302156</v>
       </c>
       <c r="L15" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302156</v>
       </c>
       <c r="M15" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302156</v>
       </c>
       <c r="N15" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302156</v>
       </c>
       <c r="O15" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="P15" t="n">
-        <v>1749.449359010245</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q15" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R15" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S15" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T15" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U15" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V15" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W15" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X15" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y15" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>344.9082250606606</v>
+        <v>600.2648836140138</v>
       </c>
       <c r="C16" t="n">
-        <v>211.7146954515962</v>
+        <v>465.1551176281754</v>
       </c>
       <c r="D16" t="n">
-        <v>211.7146954515962</v>
+        <v>341.6440794035306</v>
       </c>
       <c r="E16" t="n">
-        <v>211.7146954515962</v>
+        <v>216.7168707242952</v>
       </c>
       <c r="F16" t="n">
-        <v>211.7146954515962</v>
+        <v>216.7168707242952</v>
       </c>
       <c r="G16" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="H16" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="I16" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J16" t="n">
-        <v>133.5923325684867</v>
+        <v>134.8001681915356</v>
       </c>
       <c r="K16" t="n">
-        <v>325.2902962476423</v>
+        <v>324.620028597815</v>
       </c>
       <c r="L16" t="n">
-        <v>622.3330324846206</v>
+        <v>619.7846615619171</v>
       </c>
       <c r="M16" t="n">
-        <v>948.7427248820314</v>
+        <v>944.3162506864519</v>
       </c>
       <c r="N16" t="n">
-        <v>1266.727143233199</v>
+        <v>1260.422565764744</v>
       </c>
       <c r="O16" t="n">
-        <v>1563.433389516591</v>
+        <v>1555.250708775259</v>
       </c>
       <c r="P16" t="n">
-        <v>1806.254465723121</v>
+        <v>1796.193681708913</v>
       </c>
       <c r="Q16" t="n">
-        <v>1908.92813148255</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="R16" t="n">
-        <v>1908.92813148255</v>
+        <v>1896.989244195465</v>
       </c>
       <c r="S16" t="n">
-        <v>1760.436206191679</v>
+        <v>1746.58108252782</v>
       </c>
       <c r="T16" t="n">
-        <v>1558.7873099976</v>
+        <v>1543.015949956968</v>
       </c>
       <c r="U16" t="n">
-        <v>1313.889005372943</v>
+        <v>1543.015949956968</v>
       </c>
       <c r="V16" t="n">
-        <v>1123.157785380506</v>
+        <v>1305.113811348935</v>
       </c>
       <c r="W16" t="n">
-        <v>881.9879637185998</v>
+        <v>1143.093331402275</v>
       </c>
       <c r="X16" t="n">
-        <v>681.5439444075022</v>
+        <v>940.7330757144033</v>
       </c>
       <c r="Y16" t="n">
-        <v>494.708088625486</v>
+        <v>751.9809835556131</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.60548422493</v>
       </c>
       <c r="C17" t="n">
-        <v>1736.166594305404</v>
+        <v>1799.736935561459</v>
       </c>
       <c r="D17" t="n">
-        <v>1397.039440148413</v>
+        <v>1450.529047677779</v>
       </c>
       <c r="E17" t="n">
-        <v>1048.036000415257</v>
+        <v>1091.444874217935</v>
       </c>
       <c r="F17" t="n">
-        <v>692.3423641188924</v>
+        <v>725.6705041948817</v>
       </c>
       <c r="G17" t="n">
-        <v>348.9508557616723</v>
+        <v>372.1982621109732</v>
       </c>
       <c r="H17" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619511</v>
       </c>
       <c r="I17" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J17" t="n">
-        <v>82.36414720635868</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K17" t="n">
-        <v>620.5236483153982</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L17" t="n">
-        <v>1333.115048127636</v>
+        <v>1590.386458491316</v>
       </c>
       <c r="M17" t="n">
-        <v>2109.43363911939</v>
+        <v>2366.70504948307</v>
       </c>
       <c r="N17" t="n">
-        <v>2862.614655758008</v>
+        <v>3119.886066121688</v>
       </c>
       <c r="O17" t="n">
-        <v>3506.245512175113</v>
+        <v>3422.186600399739</v>
       </c>
       <c r="P17" t="n">
-        <v>4035.402210094265</v>
+        <v>3951.343298318891</v>
       </c>
       <c r="Q17" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114183</v>
       </c>
       <c r="R17" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114183</v>
       </c>
       <c r="S17" t="n">
-        <v>4048.263060861982</v>
+        <v>4192.479271931542</v>
       </c>
       <c r="T17" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.52882990166</v>
       </c>
       <c r="U17" t="n">
-        <v>3699.669636568246</v>
+        <v>3823.72438018443</v>
       </c>
       <c r="V17" t="n">
-        <v>3415.168857654674</v>
+        <v>3529.14286754417</v>
       </c>
       <c r="W17" t="n">
-        <v>3096.745332539791</v>
+        <v>3200.638608702599</v>
       </c>
       <c r="X17" t="n">
-        <v>2761.438710458691</v>
+        <v>2855.25125289481</v>
       </c>
       <c r="Y17" t="n">
-        <v>2425.838813156729</v>
+        <v>2509.57062186616</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C18" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D18" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E18" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F18" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H18" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I18" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J18" t="n">
-        <v>275.1770047689919</v>
+        <v>278.2629436649169</v>
       </c>
       <c r="K18" t="n">
-        <v>730.9832610342906</v>
+        <v>734.0691999302156</v>
       </c>
       <c r="L18" t="n">
-        <v>730.9832610342906</v>
+        <v>1395.157371849504</v>
       </c>
       <c r="M18" t="n">
-        <v>1187.743466521715</v>
+        <v>1395.157371849504</v>
       </c>
       <c r="N18" t="n">
-        <v>1187.743466521715</v>
+        <v>1395.157371849504</v>
       </c>
       <c r="O18" t="n">
-        <v>1187.743466521715</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="P18" t="n">
-        <v>1749.449359010245</v>
+        <v>1752.53529790617</v>
       </c>
       <c r="Q18" t="n">
-        <v>2099.293823694229</v>
+        <v>2102.379762590154</v>
       </c>
       <c r="R18" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S18" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T18" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U18" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V18" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W18" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X18" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>714.3405672578625</v>
+        <v>547.6588856093769</v>
       </c>
       <c r="C19" t="n">
-        <v>608.5839705695266</v>
+        <v>547.6588856093769</v>
       </c>
       <c r="D19" t="n">
-        <v>514.4261016423835</v>
+        <v>443.4202829555463</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8520622606507</v>
+        <v>443.4202829555463</v>
       </c>
       <c r="F19" t="n">
-        <v>319.5577121211896</v>
+        <v>334.045199089397</v>
       </c>
       <c r="G19" t="n">
-        <v>217.6440967966806</v>
+        <v>240.891503145982</v>
       </c>
       <c r="H19" t="n">
-        <v>133.3734173520849</v>
+        <v>146.5400899746981</v>
       </c>
       <c r="I19" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J19" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944908</v>
       </c>
       <c r="K19" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037254</v>
       </c>
       <c r="L19" t="n">
-        <v>703.0058463514388</v>
+        <v>676.4514038707828</v>
       </c>
       <c r="M19" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098273</v>
       </c>
       <c r="N19" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279519</v>
       </c>
       <c r="O19" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P19" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429599</v>
       </c>
       <c r="Q19" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="R19" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717765</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.064700182603</v>
+        <v>1886.948154620935</v>
       </c>
       <c r="T19" t="n">
-        <v>1808.852736909253</v>
+        <v>1702.655457620896</v>
       </c>
       <c r="U19" t="n">
-        <v>1591.391365205324</v>
+        <v>1475.11335219028</v>
       </c>
       <c r="V19" t="n">
-        <v>1382.842395894794</v>
+        <v>1256.483649153061</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.109507153616</v>
+        <v>1032.670026685195</v>
       </c>
       <c r="X19" t="n">
-        <v>996.102420763247</v>
+        <v>849.5822065681378</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.7034979019593</v>
+        <v>680.1025499801619</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.60548422493</v>
       </c>
       <c r="C20" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.73693556146</v>
       </c>
       <c r="D20" t="n">
-        <v>1397.039440148414</v>
+        <v>1450.52904767778</v>
       </c>
       <c r="E20" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217936</v>
       </c>
       <c r="F20" t="n">
-        <v>692.342364118893</v>
+        <v>725.6705041948826</v>
       </c>
       <c r="G20" t="n">
-        <v>348.9508557616728</v>
+        <v>372.1982621109742</v>
       </c>
       <c r="H20" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619511</v>
       </c>
       <c r="I20" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J20" t="n">
-        <v>336.549618674113</v>
+        <v>339.635557570038</v>
       </c>
       <c r="K20" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790776</v>
       </c>
       <c r="L20" t="n">
-        <v>1587.300519595391</v>
+        <v>1249.056136352262</v>
       </c>
       <c r="M20" t="n">
-        <v>2363.619110587144</v>
+        <v>2025.374727344016</v>
       </c>
       <c r="N20" t="n">
-        <v>3116.800127225762</v>
+        <v>2778.555743982634</v>
       </c>
       <c r="O20" t="n">
-        <v>3760.430983642867</v>
+        <v>3422.186600399739</v>
       </c>
       <c r="P20" t="n">
-        <v>4118.207360317934</v>
+        <v>3951.343298318891</v>
       </c>
       <c r="Q20" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114183</v>
       </c>
       <c r="R20" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114183</v>
       </c>
       <c r="S20" t="n">
-        <v>4048.263060861983</v>
+        <v>4192.479271931543</v>
       </c>
       <c r="T20" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901661</v>
       </c>
       <c r="U20" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184431</v>
       </c>
       <c r="V20" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544171</v>
       </c>
       <c r="W20" t="n">
-        <v>3096.745332539792</v>
+        <v>3200.638608702599</v>
       </c>
       <c r="X20" t="n">
-        <v>2761.438710458692</v>
+        <v>2855.25125289481</v>
       </c>
       <c r="Y20" t="n">
-        <v>2425.83881315673</v>
+        <v>2509.57062186616</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888181</v>
       </c>
       <c r="C21" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377638</v>
       </c>
       <c r="D21" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571562</v>
       </c>
       <c r="E21" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494842</v>
       </c>
       <c r="F21" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H21" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I21" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J21" t="n">
-        <v>275.1770047689919</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="K21" t="n">
-        <v>730.9832610342906</v>
+        <v>541.2563423675824</v>
       </c>
       <c r="L21" t="n">
-        <v>1187.743466521715</v>
+        <v>541.2563423675824</v>
       </c>
       <c r="M21" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="N21" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="O21" t="n">
-        <v>1187.743466521715</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="P21" t="n">
-        <v>1749.449359010245</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q21" t="n">
-        <v>2099.293823694229</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="R21" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952784</v>
       </c>
       <c r="S21" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067093</v>
       </c>
       <c r="T21" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U21" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.25659739232</v>
       </c>
       <c r="V21" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W21" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260575</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244048</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.3405672578621</v>
+        <v>680.1025499801615</v>
       </c>
       <c r="C22" t="n">
-        <v>608.5839705695262</v>
+        <v>564.2652195651368</v>
       </c>
       <c r="D22" t="n">
-        <v>514.4261016423837</v>
+        <v>460.0266169113062</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8520622606508</v>
+        <v>354.371843802885</v>
       </c>
       <c r="F22" t="n">
-        <v>319.5577121211896</v>
+        <v>352.8858521971794</v>
       </c>
       <c r="G22" t="n">
-        <v>217.6440967966807</v>
+        <v>240.8915031459821</v>
       </c>
       <c r="H22" t="n">
-        <v>133.3734173520849</v>
+        <v>146.5400899746982</v>
       </c>
       <c r="I22" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228366</v>
       </c>
       <c r="J22" t="n">
-        <v>160.4832705240929</v>
+        <v>153.6890822944907</v>
       </c>
       <c r="K22" t="n">
-        <v>379.0721721588545</v>
+        <v>362.3978568037252</v>
       </c>
       <c r="L22" t="n">
-        <v>703.0058463514387</v>
+        <v>676.4514038707822</v>
       </c>
       <c r="M22" t="n">
-        <v>1056.306476704456</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N22" t="n">
-        <v>1401.18183301123</v>
+        <v>1354.867136279519</v>
       </c>
       <c r="O22" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P22" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429598</v>
       </c>
       <c r="Q22" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="R22" t="n">
-        <v>2104.119692552745</v>
+        <v>2018.083880717765</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.064700182603</v>
+        <v>1886.948154620934</v>
       </c>
       <c r="T22" t="n">
-        <v>1808.852736909253</v>
+        <v>1702.655457620896</v>
       </c>
       <c r="U22" t="n">
-        <v>1591.391365205324</v>
+        <v>1475.11335219028</v>
       </c>
       <c r="V22" t="n">
-        <v>1382.842395894794</v>
+        <v>1256.483649153061</v>
       </c>
       <c r="W22" t="n">
-        <v>1169.109507153616</v>
+        <v>1032.670026685195</v>
       </c>
       <c r="X22" t="n">
-        <v>996.1024207632465</v>
+        <v>849.5822065681374</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.7034979019588</v>
+        <v>680.1025499801615</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2080.954409242187</v>
+        <v>2154.605484224929</v>
       </c>
       <c r="C23" t="n">
-        <v>1736.166594305405</v>
+        <v>1799.736935561459</v>
       </c>
       <c r="D23" t="n">
-        <v>1397.039440148414</v>
+        <v>1450.529047677779</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.036000415258</v>
+        <v>1091.444874217935</v>
       </c>
       <c r="F23" t="n">
-        <v>692.342364118893</v>
+        <v>725.6705041948824</v>
       </c>
       <c r="G23" t="n">
-        <v>348.9508557616728</v>
+        <v>372.1982621109739</v>
       </c>
       <c r="H23" t="n">
-        <v>103.3791341393379</v>
+        <v>116.5458067619511</v>
       </c>
       <c r="I23" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J23" t="n">
-        <v>336.549618674113</v>
+        <v>339.6355575700379</v>
       </c>
       <c r="K23" t="n">
-        <v>874.7091197831526</v>
+        <v>877.7950586790774</v>
       </c>
       <c r="L23" t="n">
-        <v>1587.300519595391</v>
+        <v>1590.386458491315</v>
       </c>
       <c r="M23" t="n">
-        <v>2363.619110587144</v>
+        <v>2366.705049483069</v>
       </c>
       <c r="N23" t="n">
-        <v>3116.800127225762</v>
+        <v>3119.886066121687</v>
       </c>
       <c r="O23" t="n">
-        <v>3227.333009913926</v>
+        <v>3763.516922538792</v>
       </c>
       <c r="P23" t="n">
-        <v>3756.489707833077</v>
+        <v>3910.786652629324</v>
       </c>
       <c r="Q23" t="n">
-        <v>4077.650714628369</v>
+        <v>4231.947659424616</v>
       </c>
       <c r="R23" t="n">
-        <v>4118.207360317934</v>
+        <v>4272.504305114181</v>
       </c>
       <c r="S23" t="n">
-        <v>4048.263060861983</v>
+        <v>4192.479271931541</v>
       </c>
       <c r="T23" t="n">
-        <v>3891.393352558789</v>
+        <v>4025.528829901659</v>
       </c>
       <c r="U23" t="n">
-        <v>3699.669636568247</v>
+        <v>3823.724380184429</v>
       </c>
       <c r="V23" t="n">
-        <v>3415.168857654675</v>
+        <v>3529.142867544169</v>
       </c>
       <c r="W23" t="n">
-        <v>3096.745332539792</v>
+        <v>3200.638608702597</v>
       </c>
       <c r="X23" t="n">
-        <v>2761.438710458692</v>
+        <v>2855.251252894809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2425.83881315673</v>
+        <v>2509.570621866158</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>761.1949890928931</v>
+        <v>764.2809279888179</v>
       </c>
       <c r="C24" t="n">
-        <v>627.1999178418388</v>
+        <v>630.2858567377637</v>
       </c>
       <c r="D24" t="n">
-        <v>510.3027600612312</v>
+        <v>513.3886989571561</v>
       </c>
       <c r="E24" t="n">
-        <v>389.8099440535592</v>
+        <v>392.8958829494841</v>
       </c>
       <c r="F24" t="n">
-        <v>280.8500642360638</v>
+        <v>283.9360031319887</v>
       </c>
       <c r="G24" t="n">
-        <v>173.8599515504025</v>
+        <v>176.9458904463274</v>
       </c>
       <c r="H24" t="n">
-        <v>103.1127385861185</v>
+        <v>106.1986774820435</v>
       </c>
       <c r="I24" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J24" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="K24" t="n">
-        <v>538.1704034716574</v>
+        <v>541.2563423675823</v>
       </c>
       <c r="L24" t="n">
-        <v>538.1704034716574</v>
+        <v>541.2563423675823</v>
       </c>
       <c r="M24" t="n">
-        <v>538.1704034716574</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.051787826981</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="O24" t="n">
-        <v>1779.008878372875</v>
+        <v>1220.38892478027</v>
       </c>
       <c r="P24" t="n">
-        <v>1779.008878372875</v>
+        <v>1782.0948172688</v>
       </c>
       <c r="Q24" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="R24" t="n">
-        <v>2128.853343056859</v>
+        <v>2131.939281952783</v>
       </c>
       <c r="S24" t="n">
-        <v>2020.863333171168</v>
+        <v>2023.949272067092</v>
       </c>
       <c r="T24" t="n">
-        <v>1861.521469358176</v>
+        <v>1864.607408254101</v>
       </c>
       <c r="U24" t="n">
-        <v>1664.170658496394</v>
+        <v>1667.256597392319</v>
       </c>
       <c r="V24" t="n">
-        <v>1450.459131489428</v>
+        <v>1453.545070385353</v>
       </c>
       <c r="W24" t="n">
-        <v>1237.225963225757</v>
+        <v>1240.311902121682</v>
       </c>
       <c r="X24" t="n">
-        <v>1060.89998136465</v>
+        <v>1063.985920260574</v>
       </c>
       <c r="Y24" t="n">
-        <v>901.4980217284798</v>
+        <v>904.5839606244045</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>714.3405672578619</v>
+        <v>577.6755619107171</v>
       </c>
       <c r="C25" t="n">
-        <v>608.5839705695261</v>
+        <v>461.8382314956931</v>
       </c>
       <c r="D25" t="n">
-        <v>514.4261016423836</v>
+        <v>357.5996288418623</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8520622606507</v>
+        <v>291.7958483247648</v>
       </c>
       <c r="F25" t="n">
-        <v>319.5577121211896</v>
+        <v>291.7958483247648</v>
       </c>
       <c r="G25" t="n">
-        <v>217.6440967966806</v>
+        <v>179.8014992735676</v>
       </c>
       <c r="H25" t="n">
-        <v>133.3734173520849</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="I25" t="n">
-        <v>82.36414720635868</v>
+        <v>85.45008610228362</v>
       </c>
       <c r="J25" t="n">
-        <v>160.4832705240928</v>
+        <v>153.6890822944906</v>
       </c>
       <c r="K25" t="n">
-        <v>379.0721721588544</v>
+        <v>362.3978568037251</v>
       </c>
       <c r="L25" t="n">
-        <v>703.0058463514385</v>
+        <v>676.4514038707821</v>
       </c>
       <c r="M25" t="n">
-        <v>1056.306476704455</v>
+        <v>1019.871907098272</v>
       </c>
       <c r="N25" t="n">
-        <v>1401.181833011229</v>
+        <v>1354.867136279519</v>
       </c>
       <c r="O25" t="n">
-        <v>1724.779017250227</v>
+        <v>1668.58419339299</v>
       </c>
       <c r="P25" t="n">
-        <v>1994.491031412363</v>
+        <v>1928.416080429599</v>
       </c>
       <c r="Q25" t="n">
-        <v>2124.055635127398</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="R25" t="n">
-        <v>2104.119692552745</v>
+        <v>2048.100557019106</v>
       </c>
       <c r="S25" t="n">
-        <v>1983.064700182603</v>
+        <v>1916.964830922275</v>
       </c>
       <c r="T25" t="n">
-        <v>1808.852736909253</v>
+        <v>1732.672133922237</v>
       </c>
       <c r="U25" t="n">
-        <v>1591.391365205324</v>
+        <v>1505.130028491621</v>
       </c>
       <c r="V25" t="n">
-        <v>1382.842395894794</v>
+        <v>1286.500325454402</v>
       </c>
       <c r="W25" t="n">
-        <v>1169.109507153616</v>
+        <v>1062.686702986535</v>
       </c>
       <c r="X25" t="n">
-        <v>996.1024207632465</v>
+        <v>879.598882869478</v>
       </c>
       <c r="Y25" t="n">
-        <v>836.7034979019588</v>
+        <v>710.1192262815021</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489446</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764616</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6260,7 +6260,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W26" t="n">
         <v>3463.023532176683</v>
@@ -6303,25 +6303,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>1402.950983437843</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M27" t="n">
-        <v>1402.950983437843</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N27" t="n">
-        <v>2139.732893541123</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>234.5401592942216</v>
+        <v>234.5401592942213</v>
       </c>
       <c r="C28" t="n">
         <v>93.2436976906228</v>
@@ -6382,19 +6382,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362207</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
-        <v>609.387532025356</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749237</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
         <v>1526.662838113797</v>
@@ -6409,25 +6409,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1699.679355498665</v>
+        <v>1752.043346625801</v>
       </c>
       <c r="T28" t="n">
-        <v>1489.927527310052</v>
+        <v>1542.291518437188</v>
       </c>
       <c r="U28" t="n">
-        <v>1236.926290690861</v>
+        <v>1289.290281817997</v>
       </c>
       <c r="V28" t="n">
-        <v>992.8374564650677</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W28" t="n">
-        <v>743.5647028086269</v>
+        <v>795.9286939357631</v>
       </c>
       <c r="X28" t="n">
-        <v>535.0177515029951</v>
+        <v>587.3817426301314</v>
       </c>
       <c r="Y28" t="n">
-        <v>340.0789637264446</v>
+        <v>392.4429548535809</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C29" t="n">
         <v>1960.285334281245</v>
@@ -6449,10 +6449,10 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764616</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H29" t="n">
         <v>149.7985495388648</v>
@@ -6461,10 +6461,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6476,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6488,7 +6488,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T29" t="n">
         <v>4364.291146941468</v>
@@ -6497,7 +6497,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W29" t="n">
         <v>3463.023532176683</v>
@@ -6546,22 +6546,22 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>338.7710254524897</v>
+        <v>335.2473119828012</v>
       </c>
       <c r="C31" t="n">
-        <v>197.4745638488913</v>
+        <v>193.9508503792025</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>193.9508503792025</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>193.9508503792025</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>193.9508503792025</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6619,19 +6619,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
         <v>1526.662838113797</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1646.522384595457</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U31" t="n">
-        <v>1393.521147976266</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.432313750472</v>
+        <v>937.3616489751521</v>
       </c>
       <c r="W31" t="n">
-        <v>900.1595600940315</v>
+        <v>688.0888953187113</v>
       </c>
       <c r="X31" t="n">
-        <v>691.6126087883997</v>
+        <v>688.0888953187113</v>
       </c>
       <c r="Y31" t="n">
-        <v>496.6738210118492</v>
+        <v>493.1501075421608</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2080.954409242187</v>
+        <v>2232.911278955707</v>
       </c>
       <c r="C32" t="n">
-        <v>1736.166594305405</v>
+        <v>1888.123464018924</v>
       </c>
       <c r="D32" t="n">
-        <v>1397.039440148413</v>
+        <v>1483.659534111985</v>
       </c>
       <c r="E32" t="n">
-        <v>1048.036000415258</v>
+        <v>1069.319318628882</v>
       </c>
       <c r="F32" t="n">
-        <v>692.3423641188929</v>
+        <v>703.2219146031567</v>
       </c>
       <c r="G32" t="n">
-        <v>348.9508557616723</v>
+        <v>359.8304062459365</v>
       </c>
       <c r="H32" t="n">
-        <v>103.3791341393379</v>
+        <v>114.2586846236021</v>
       </c>
       <c r="I32" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>336.549618674113</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>874.7091197831526</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L32" t="n">
-        <v>1587.300519595391</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M32" t="n">
-        <v>2363.619110587144</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N32" t="n">
-        <v>3116.800127225762</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3760.430983642867</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
-        <v>4118.207360317934</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4118.207360317934</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4118.207360317934</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4048.263060861982</v>
+        <v>4592.240585075188</v>
       </c>
       <c r="T32" t="n">
-        <v>3891.393352558789</v>
+        <v>4435.370876771995</v>
       </c>
       <c r="U32" t="n">
-        <v>3699.669636568247</v>
+        <v>4178.310385031505</v>
       </c>
       <c r="V32" t="n">
-        <v>3415.168857654675</v>
+        <v>3828.472830367985</v>
       </c>
       <c r="W32" t="n">
-        <v>3096.745332539791</v>
+        <v>3444.712529503154</v>
       </c>
       <c r="X32" t="n">
-        <v>2761.438710458692</v>
+        <v>3044.069131672106</v>
       </c>
       <c r="Y32" t="n">
-        <v>2425.838813156729</v>
+        <v>2643.132458620196</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.1949890928931</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>627.1999178418388</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>510.3027600612312</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>389.8099440535592</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>280.8500642360638</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>173.8599515504025</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>103.1127385861185</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>82.36414720635868</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>82.36414720635868</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>743.4523191256469</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>1586.429399820214</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N33" t="n">
-        <v>2128.853343056859</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O33" t="n">
-        <v>2128.853343056859</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2128.853343056859</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>2128.853343056859</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>2020.863333171168</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>1861.521469358176</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>1664.170658496394</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>1450.459131489428</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>1237.225963225757</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>1060.89998136465</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4980217284798</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>714.3405672578624</v>
+        <v>725.2201177421261</v>
       </c>
       <c r="C34" t="n">
-        <v>608.5839705695265</v>
+        <v>619.4635210537905</v>
       </c>
       <c r="D34" t="n">
-        <v>514.4261016423842</v>
+        <v>525.3056521266479</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8520622606512</v>
+        <v>429.731612744915</v>
       </c>
       <c r="F34" t="n">
-        <v>319.55771212119</v>
+        <v>330.4372626054538</v>
       </c>
       <c r="G34" t="n">
-        <v>217.644096796681</v>
+        <v>228.5236472809448</v>
       </c>
       <c r="H34" t="n">
-        <v>133.3734173520852</v>
+        <v>144.2529678363489</v>
       </c>
       <c r="I34" t="n">
-        <v>82.36414720635868</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>160.4832705240926</v>
+        <v>171.3628210083571</v>
       </c>
       <c r="K34" t="n">
-        <v>379.0721721588543</v>
+        <v>389.9517226431185</v>
       </c>
       <c r="L34" t="n">
-        <v>703.0058463514383</v>
+        <v>713.8853968357025</v>
       </c>
       <c r="M34" t="n">
-        <v>1056.306476704455</v>
+        <v>1067.186027188719</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.181833011229</v>
+        <v>1412.061383495493</v>
       </c>
       <c r="O34" t="n">
-        <v>1724.779017250227</v>
+        <v>1735.658567734491</v>
       </c>
       <c r="P34" t="n">
-        <v>1994.491031412363</v>
+        <v>2005.370581896627</v>
       </c>
       <c r="Q34" t="n">
-        <v>2124.055635127398</v>
+        <v>2134.935185611662</v>
       </c>
       <c r="R34" t="n">
-        <v>2104.119692552745</v>
+        <v>2114.999243037009</v>
       </c>
       <c r="S34" t="n">
-        <v>1983.064700182603</v>
+        <v>1993.944250666867</v>
       </c>
       <c r="T34" t="n">
-        <v>1808.852736909253</v>
+        <v>1819.732287393517</v>
       </c>
       <c r="U34" t="n">
-        <v>1591.391365205324</v>
+        <v>1602.270915689588</v>
       </c>
       <c r="V34" t="n">
-        <v>1382.842395894794</v>
+        <v>1393.721946379058</v>
       </c>
       <c r="W34" t="n">
-        <v>1169.109507153616</v>
+        <v>1179.98905763788</v>
       </c>
       <c r="X34" t="n">
-        <v>996.1024207632468</v>
+        <v>1006.981971247511</v>
       </c>
       <c r="Y34" t="n">
-        <v>836.7034979019591</v>
+        <v>847.583048386223</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1736.166594305405</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E35" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F35" t="n">
-        <v>692.3423641188925</v>
+        <v>692.342364118893</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H35" t="n">
         <v>103.3791341393379</v>
@@ -6941,22 +6941,22 @@
         <v>874.7091197831526</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M35" t="n">
-        <v>1830.521136858203</v>
+        <v>1871.077782547768</v>
       </c>
       <c r="N35" t="n">
-        <v>2583.702153496821</v>
+        <v>2624.258799186386</v>
       </c>
       <c r="O35" t="n">
-        <v>3227.333009913926</v>
+        <v>3267.889655603491</v>
       </c>
       <c r="P35" t="n">
-        <v>3756.489707833077</v>
+        <v>3797.046353522642</v>
       </c>
       <c r="Q35" t="n">
-        <v>4077.650714628369</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="R35" t="n">
         <v>4118.207360317934</v>
@@ -7020,13 +7020,13 @@
         <v>730.9832610342906</v>
       </c>
       <c r="L36" t="n">
-        <v>1187.743466521715</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="M36" t="n">
-        <v>1187.743466521715</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="N36" t="n">
-        <v>1187.743466521715</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="O36" t="n">
         <v>1187.743466521715</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578618</v>
+        <v>714.3405672578621</v>
       </c>
       <c r="C37" t="n">
         <v>608.5839705695262</v>
       </c>
       <c r="D37" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E37" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F37" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G37" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H37" t="n">
-        <v>133.373417352085</v>
+        <v>133.3734173520849</v>
       </c>
       <c r="I37" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240926</v>
+        <v>160.4832705240925</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588543</v>
+        <v>379.0721721588541</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514383</v>
       </c>
       <c r="M37" t="n">
         <v>1056.306476704455</v>
@@ -7181,19 +7181,19 @@
         <v>1587.300519595391</v>
       </c>
       <c r="M38" t="n">
-        <v>2363.619110587144</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N38" t="n">
-        <v>3116.800127225762</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O38" t="n">
-        <v>3760.430983642867</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P38" t="n">
-        <v>3797.046353522642</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q38" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R38" t="n">
         <v>4118.207360317934</v>
@@ -7251,28 +7251,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J39" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K39" t="n">
-        <v>538.1704034716574</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L39" t="n">
-        <v>1199.258575390946</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="M39" t="n">
-        <v>1217.302985884345</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="N39" t="n">
-        <v>1217.302985884345</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="O39" t="n">
-        <v>1217.302985884345</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P39" t="n">
-        <v>1779.008878372875</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q39" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R39" t="n">
         <v>2128.853343056859</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578619</v>
+        <v>714.3405672578617</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695261</v>
+        <v>608.5839705695259</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423836</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606507</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211895</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966806</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H40" t="n">
         <v>133.3734173520849</v>
@@ -7330,25 +7330,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240927</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588548</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L40" t="n">
-        <v>703.005846351439</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M40" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N40" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O40" t="n">
-        <v>1724.779017250228</v>
+        <v>1724.779017250227</v>
       </c>
       <c r="P40" t="n">
-        <v>1994.491031412364</v>
+        <v>1994.491031412363</v>
       </c>
       <c r="Q40" t="n">
         <v>2124.055635127398</v>
@@ -7357,22 +7357,22 @@
         <v>2104.119692552745</v>
       </c>
       <c r="S40" t="n">
-        <v>1983.064700182603</v>
+        <v>1983.064700182602</v>
       </c>
       <c r="T40" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U40" t="n">
-        <v>1591.391365205325</v>
+        <v>1591.391365205324</v>
       </c>
       <c r="V40" t="n">
-        <v>1382.842395894794</v>
+        <v>1382.842395894793</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.109507153616</v>
+        <v>1169.109507153615</v>
       </c>
       <c r="X40" t="n">
-        <v>996.102420763247</v>
+        <v>996.1024207632464</v>
       </c>
       <c r="Y40" t="n">
         <v>836.7034979019587</v>
@@ -7391,16 +7391,16 @@
         <v>1736.166594305405</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.039440148413</v>
+        <v>1397.039440148414</v>
       </c>
       <c r="E41" t="n">
         <v>1048.036000415258</v>
       </c>
       <c r="F41" t="n">
-        <v>692.3423641188928</v>
+        <v>692.342364118893</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616725</v>
+        <v>348.9508557616728</v>
       </c>
       <c r="H41" t="n">
         <v>103.3791341393379</v>
@@ -7409,28 +7409,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1692974300282</v>
+        <v>124.6126517404633</v>
       </c>
       <c r="K41" t="n">
-        <v>703.3287985390677</v>
+        <v>662.7721528495028</v>
       </c>
       <c r="L41" t="n">
-        <v>1415.920198351306</v>
+        <v>1375.363552661741</v>
       </c>
       <c r="M41" t="n">
-        <v>2192.23878934306</v>
+        <v>2151.682143653495</v>
       </c>
       <c r="N41" t="n">
-        <v>2945.419805981678</v>
+        <v>2904.863160292113</v>
       </c>
       <c r="O41" t="n">
-        <v>3589.050662398783</v>
+        <v>3548.494016709218</v>
       </c>
       <c r="P41" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="Q41" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R41" t="n">
         <v>4118.207360317934</v>
@@ -7451,7 +7451,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X41" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y41" t="n">
         <v>2425.838813156729</v>
@@ -7567,13 +7567,13 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J43" t="n">
-        <v>160.483270524093</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K43" t="n">
-        <v>379.0721721588546</v>
+        <v>379.0721721588545</v>
       </c>
       <c r="L43" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514387</v>
       </c>
       <c r="M43" t="n">
         <v>1056.306476704456</v>
@@ -7646,25 +7646,25 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J44" t="n">
-        <v>82.36414720635868</v>
+        <v>165.1692974300282</v>
       </c>
       <c r="K44" t="n">
-        <v>620.5236483153982</v>
+        <v>703.3287985390677</v>
       </c>
       <c r="L44" t="n">
-        <v>1333.115048127636</v>
+        <v>1415.920198351306</v>
       </c>
       <c r="M44" t="n">
-        <v>2109.43363911939</v>
+        <v>2192.23878934306</v>
       </c>
       <c r="N44" t="n">
-        <v>2624.258799186386</v>
+        <v>2945.419805981678</v>
       </c>
       <c r="O44" t="n">
-        <v>3267.889655603491</v>
+        <v>3589.050662398783</v>
       </c>
       <c r="P44" t="n">
-        <v>3797.046353522642</v>
+        <v>4118.207360317934</v>
       </c>
       <c r="Q44" t="n">
         <v>4118.207360317934</v>
@@ -7679,7 +7679,7 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.669636568247</v>
+        <v>3699.669636568246</v>
       </c>
       <c r="V44" t="n">
         <v>3415.168857654675</v>
@@ -7688,7 +7688,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y44" t="n">
         <v>2425.838813156729</v>
@@ -7725,28 +7725,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J45" t="n">
-        <v>82.36414720635868</v>
+        <v>275.1770047689919</v>
       </c>
       <c r="K45" t="n">
-        <v>82.36414720635868</v>
+        <v>730.9832610342906</v>
       </c>
       <c r="L45" t="n">
-        <v>82.36414720635868</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="M45" t="n">
-        <v>82.36414720635868</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="N45" t="n">
-        <v>956.0222393179765</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="O45" t="n">
-        <v>1659.979329863871</v>
+        <v>1217.302985884345</v>
       </c>
       <c r="P45" t="n">
-        <v>1749.449359010245</v>
+        <v>1779.008878372875</v>
       </c>
       <c r="Q45" t="n">
-        <v>2099.293823694229</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="R45" t="n">
         <v>2128.853343056859</v>
@@ -7804,19 +7804,19 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240927</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M46" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N46" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O46" t="n">
         <v>1724.779017250227</v>
@@ -7828,22 +7828,22 @@
         <v>2124.055635127398</v>
       </c>
       <c r="R46" t="n">
-        <v>2104.119692552746</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S46" t="n">
         <v>1983.064700182603</v>
       </c>
       <c r="T46" t="n">
-        <v>1808.852736909253</v>
+        <v>1808.852736909252</v>
       </c>
       <c r="U46" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V46" t="n">
-        <v>1382.842395894793</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.109507153615</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X46" t="n">
         <v>996.1024207632465</v>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>90.14369925915724</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>105.9564975990664</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>109.7898708864971</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>106.8539123250013</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,25 +8055,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>68.1893467258493</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>72.25503141646202</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>74.38439166426673</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>70.0135013195993</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>422.1224761037308</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K4" t="n">
-        <v>69.07047748491613</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>70.76880149951448</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
-        <v>56.26494249878004</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N4" t="n">
-        <v>51.71264550841944</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O4" t="n">
-        <v>72.89500599884562</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P4" t="n">
-        <v>72.59994956575409</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>304.6710456564523</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>273.9460644105812</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O5" t="n">
-        <v>324.5372299489275</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.3812587222964</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,28 +8292,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>287.1732371077597</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>83.35414405767111</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>289.0989333231443</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>288.0400728279831</v>
+        <v>97.25235142021847</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
-        <v>52.25036955906683</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
-        <v>285.9757482170458</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M7" t="n">
-        <v>278.2650249300801</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N7" t="n">
-        <v>283.0600998315638</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O7" t="n">
-        <v>287.4223523961406</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P7" t="n">
-        <v>55.77984163990478</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.35952565992557</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>485.6381778130617</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>235.7076676518026</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>594.6194560602019</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8529,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>269.5964948773907</v>
+        <v>200.7852390175288</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8690,7 +8690,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>94.24904359250789</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
@@ -8699,7 +8699,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>853.701196452193</v>
+        <v>467.9567845040939</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
@@ -8766,31 +8766,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>517.4884687476415</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629451</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
-        <v>815.2746908024792</v>
+        <v>429.5302788543802</v>
       </c>
       <c r="M14" t="n">
         <v>877.4504173780091</v>
@@ -8945,7 +8945,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>132.7090615043082</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9018,7 +9018,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>519.1254239367925</v>
+        <v>548.9835243030856</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
@@ -9027,7 +9027,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9176,13 +9176,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>743.321953824879</v>
+        <v>398.543850654118</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>173.6753702816465</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
         <v>87.31214281472352</v>
@@ -9246,19 +9246,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>518.9382286752099</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>418.7392830976431</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9404,7 +9404,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L20" t="n">
-        <v>815.2746908024792</v>
+        <v>470.4965876317185</v>
       </c>
       <c r="M20" t="n">
         <v>877.4504173780091</v>
@@ -9416,10 +9416,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P20" t="n">
-        <v>455.0396427506486</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
         <v>87.31214281472352</v>
@@ -9477,16 +9477,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>517.4884687476415</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>743.556791225981</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
@@ -9501,7 +9501,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9650,10 +9650,10 @@
         <v>853.701196452193</v>
       </c>
       <c r="O23" t="n">
-        <v>204.8391520784733</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>242.4066664026336</v>
       </c>
       <c r="Q23" t="n">
         <v>414.4388617681339</v>
@@ -9723,16 +9723,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>743.5567912259806</v>
       </c>
       <c r="N24" t="n">
-        <v>595.4978220354908</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9951,28 +9951,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>797.4175450132245</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>743.7439864875635</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10194,7 +10194,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10203,7 +10203,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>519.1254239367926</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10212,7 +10212,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L32" t="n">
         <v>815.2746908024792</v>
@@ -10364,13 +10364,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>455.0396427506486</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>601.0963663600581</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>548.9835243030855</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10589,10 +10589,10 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>276.7918890560734</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
-        <v>877.4504173780091</v>
+        <v>379.9339244089414</v>
       </c>
       <c r="N35" t="n">
         <v>853.701196452193</v>
@@ -10607,7 +10607,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>517.4884687476415</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10677,7 +10677,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367925</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10829,7 +10829,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M38" t="n">
-        <v>877.4504173780091</v>
+        <v>338.9676156316031</v>
       </c>
       <c r="N38" t="n">
         <v>853.701196452193</v>
@@ -10838,13 +10838,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>130.6345853816668</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,22 +10899,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>75.79096100447751</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367925</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -10923,7 +10923,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>156.9651572158024</v>
+        <v>115.9988484384642</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11081,7 +11081,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>156.9651572158024</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11306,7 +11306,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>612.9377049657057</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11315,7 +11315,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11373,31 +11373,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>144.6334018173233</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>272.1756420106386</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>98.62011915686196</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>308.8183347159572</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>14.02002621595392</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>131.8615943129738</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7808625794369</v>
+        <v>123.6779365924431</v>
       </c>
       <c r="F13" t="n">
-        <v>48.88718827718448</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>129.9541167757914</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>112.4876102546773</v>
       </c>
       <c r="I13" t="n">
-        <v>77.66174103579024</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>147.007006037962</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>139.8207733419047</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>186.8645712372023</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>286.1956682265917</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>48.32233442100922</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>359.1161194518101</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3788538293922</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7808625794369</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.4639702295878</v>
+        <v>127.361044242594</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>110.590536241671</v>
+        <v>112.4876102546773</v>
       </c>
       <c r="I16" t="n">
-        <v>77.66174103579024</v>
+        <v>79.55881504879646</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.89914674042748</v>
+        <v>48.7962207534337</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>244.3463955914164</v>
       </c>
       <c r="V16" t="n">
-        <v>44.80213541643395</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>80.2549223111007</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>114.6789571108738</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.167288500859465e-12</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>104.5982253773369</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.65224657670437</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>131.1192277270772</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>106.8102013378393</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>39.45248266541043</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>108.2813330274879</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>60.47910383369033</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>29.71650953832757</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.84035121586513</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>54.92104941501636</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>51.84035121586513</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>25.2121990072953</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
@@ -24850,13 +24850,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>36.37886427568013</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1042168.316138821</v>
+        <v>1084100.251175872</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1060771.087485806</v>
+        <v>1084100.251175872</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1074541.915341627</v>
+        <v>1084100.251175872</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1032534.087429558</v>
+        <v>1047848.38243173</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1032534.087429558</v>
+        <v>1047848.38243173</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1108093.066293142</v>
+        <v>1100923.03024868</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1108093.066293142</v>
+        <v>1100923.03024868</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1108093.066293142</v>
+        <v>1100923.03024868</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1108093.066293142</v>
+        <v>1114522.550945994</v>
       </c>
     </row>
     <row r="13">
@@ -26320,37 +26320,37 @@
         <v>114017.6751227199</v>
       </c>
       <c r="E2" t="n">
-        <v>105622.2330267659</v>
+        <v>107121.1884298751</v>
       </c>
       <c r="F2" t="n">
-        <v>105622.2330267659</v>
+        <v>107121.1884298751</v>
       </c>
       <c r="G2" t="n">
-        <v>114017.6751227198</v>
+        <v>113018.3715206472</v>
       </c>
       <c r="H2" t="n">
-        <v>114017.6751227197</v>
+        <v>113018.3715206472</v>
       </c>
       <c r="I2" t="n">
-        <v>114017.6751227198</v>
+        <v>113018.3715206473</v>
       </c>
       <c r="J2" t="n">
-        <v>110494.6066646202</v>
+        <v>110494.6066646203</v>
       </c>
       <c r="K2" t="n">
         <v>110494.6066646203</v>
       </c>
       <c r="L2" t="n">
-        <v>114017.6751227198</v>
+        <v>114017.6751227197</v>
       </c>
       <c r="M2" t="n">
-        <v>114017.6751227198</v>
+        <v>114017.6751227197</v>
       </c>
       <c r="N2" t="n">
         <v>114017.6751227198</v>
       </c>
       <c r="O2" t="n">
-        <v>114017.6751227199</v>
+        <v>114017.6751227197</v>
       </c>
       <c r="P2" t="n">
         <v>114017.6751227198</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5636.805028434394</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>69307.49696633374</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49329.69823741155</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>220927.1681557333</v>
+        <v>191541.2671994907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>21730.05087321703</v>
+        <v>15263.76897208494</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41852.09666231426</v>
+        <v>170419.5815951231</v>
       </c>
       <c r="K3" t="n">
-        <v>55212.47408757902</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>55650.86860860728</v>
+        <v>43411.34198497303</v>
       </c>
       <c r="M3" t="n">
-        <v>159340.8034302946</v>
+        <v>102190.6169864199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1869.102507853393</v>
+        <v>8335.384408985487</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,37 +26415,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>327088.9179730089</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="C4" t="n">
-        <v>276500.6890592078</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="D4" t="n">
-        <v>239052.4089664804</v>
+        <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
-        <v>120524.352133339</v>
+        <v>120449.2054397812</v>
       </c>
       <c r="F4" t="n">
-        <v>120524.352133339</v>
+        <v>120449.2054397812</v>
       </c>
       <c r="G4" t="n">
-        <v>147973.3646169926</v>
+        <v>139730.1260187001</v>
       </c>
       <c r="H4" t="n">
-        <v>147973.3646169926</v>
+        <v>139730.1260187001</v>
       </c>
       <c r="I4" t="n">
-        <v>147973.3646169926</v>
+        <v>139730.1260187</v>
       </c>
       <c r="J4" t="n">
-        <v>118911.6321885295</v>
+        <v>118911.6321885296</v>
       </c>
       <c r="K4" t="n">
-        <v>118911.6321885295</v>
+        <v>118911.6321885296</v>
       </c>
       <c r="L4" t="n">
-        <v>147973.3646169926</v>
+        <v>130489.075026508</v>
       </c>
       <c r="M4" t="n">
         <v>147973.3646169926</v>
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34650.26256189164</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>47693.52522284717</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>57348.88900881319</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047767</v>
       </c>
       <c r="F5" t="n">
-        <v>65751.09174477412</v>
+        <v>67936.92019047767</v>
       </c>
       <c r="G5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262044</v>
       </c>
       <c r="H5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262044</v>
       </c>
       <c r="I5" t="n">
-        <v>68034.62130334972</v>
+        <v>69540.93243262041</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26497,7 +26497,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="L5" t="n">
-        <v>68034.62130334972</v>
+        <v>76303.07967139044</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253358.3104406151</v>
+        <v>-339366.4461284828</v>
       </c>
       <c r="C6" t="n">
-        <v>-279484.0361256688</v>
+        <v>-164410.9362353688</v>
       </c>
       <c r="D6" t="n">
-        <v>-231713.3210899853</v>
+        <v>-164410.9362353688</v>
       </c>
       <c r="E6" t="n">
-        <v>-301580.3790070805</v>
+        <v>-272904.7256383437</v>
       </c>
       <c r="F6" t="n">
-        <v>-80653.21085134719</v>
+        <v>-81363.45843885302</v>
       </c>
       <c r="G6" t="n">
-        <v>-123720.3616708396</v>
+        <v>-111530.7316685022</v>
       </c>
       <c r="H6" t="n">
-        <v>-101990.3107976226</v>
+        <v>-96266.96269641712</v>
       </c>
       <c r="I6" t="n">
-        <v>-101990.3107976225</v>
+        <v>-96266.96269641697</v>
       </c>
       <c r="J6" t="n">
-        <v>-123614.2789630884</v>
+        <v>-252232.0934452986</v>
       </c>
       <c r="K6" t="n">
-        <v>-136974.6563883531</v>
+        <v>-81812.51185017559</v>
       </c>
       <c r="L6" t="n">
-        <v>-157641.1794062298</v>
+        <v>-136185.8215601517</v>
       </c>
       <c r="M6" t="n">
-        <v>-261331.1142279171</v>
+        <v>-204180.9277840426</v>
       </c>
       <c r="N6" t="n">
         <v>-101990.3107976225</v>
       </c>
       <c r="O6" t="n">
-        <v>-103859.4133054758</v>
+        <v>-110325.6952066081</v>
       </c>
       <c r="P6" t="n">
         <v>-101990.3107976225</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F2" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="G2" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="H2" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="I2" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="J2" t="n">
         <v>29.49894172633799</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M2" t="n">
         <v>64.68340799244812</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>231.3474543231443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="F4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="G4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="H4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278546</v>
       </c>
       <c r="I4" t="n">
-        <v>1029.551840079484</v>
+        <v>1068.126076278545</v>
       </c>
       <c r="J4" t="n">
         <v>1165.546221132785</v>
@@ -26817,7 +26817,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="L4" t="n">
-        <v>1029.551840079484</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="M4" t="n">
         <v>1029.551840079484</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>27.16256359152129</v>
+        <v>19.07971121510618</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.336378134816727</v>
+        <v>10.41923051123184</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>62.34702985763141</v>
+        <v>54.26417748121628</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816741</v>
+        <v>10.41923051123186</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>214.527346397295</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>158.8053254270726</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>639.3990603292666</v>
+        <v>546.0625059085202</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>152.8144889791506</v>
+        <v>619.4837152242651</v>
       </c>
       <c r="K4" t="n">
-        <v>214.527346397295</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.81094437377126</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>410.0681248552188</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>27.16256359152129</v>
+        <v>19.07971121510618</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.336378134816727</v>
+        <v>10.41923051123184</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>214.527346397295</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>158.8053254270726</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>639.3990603292666</v>
+        <v>546.0625059085202</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>32.00506750783444</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>303.5635712615673</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.1643112867605</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89.10010363295538</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.21963290879181</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.72595440487417</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>90.09000186098496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>141.0795903044698</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>133.2962295815099</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>67.59988321550505</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>220.3331437072156</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>247.1129272530667</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>174.6758904567182</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>23.14243249994067</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>231.0623070808438</v>
+        <v>36.48256044511919</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.5798519982465</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.0394448264755</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27774,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>49.13207386498699</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>5.805797309920592</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>4.612969195769125</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>56.3178911143963</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>146.1473268010587</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>351.2559935643872</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -27935,22 +27935,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>79.41236609951878</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>109.5567654528354</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
         <v>148.1113806425979</v>
@@ -28062,7 +28062,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>219.0765627362157</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="C11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="D11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="E11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="G11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="H11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="I11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="T11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="U11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="V11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="W11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="X11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="C13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="D13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="G13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="H13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="I13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="J13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="K13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="L13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="M13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="N13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="O13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="P13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="R13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="S13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="T13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="U13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="V13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="W13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="X13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792062</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="C14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="D14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="E14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="F14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="G14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="H14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="I14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="T14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="U14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="V14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="W14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="X14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="Y14" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="C16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="D16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="E16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="G16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="H16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="I16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="J16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="K16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="L16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="M16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="N16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="O16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="P16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="R16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="S16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="T16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="U16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="V16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="W16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="X16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.52084440092686</v>
+        <v>35.62377038792064</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="C17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="D17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="E17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="F17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="G17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="H17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="I17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="T17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="U17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="V17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="W17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="X17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="Y17" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="C19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="D19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="E19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="F19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="G19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="H19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="I19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="J19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="K19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="L19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="M19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="N19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="O19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="P19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="R19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="S19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="T19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="U19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="V19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="W19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="X19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
       <c r="Y19" t="n">
-        <v>64.68340799244815</v>
+        <v>54.70348160302682</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="C20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="E20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="F20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="G20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="H20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="I20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="T20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="U20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="V20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="W20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="X20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="Y20" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="C22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="D22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="E22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="F22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="G22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="H22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="I22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="J22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="K22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="L22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="M22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="N22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="O22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="P22" t="n">
-        <v>64.68340799244791</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="R22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="S22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="T22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="U22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="V22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="W22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="X22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="Y22" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="C23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="D23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="E23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="F23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="G23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="H23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="I23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="T23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="U23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="V23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="W23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="X23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="Y23" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="C25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="D25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="E25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="F25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="G25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="H25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="I25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="J25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="K25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="L25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="M25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="N25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="O25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="P25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="R25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="S25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="T25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="U25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="V25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="W25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="X25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.68340799244812</v>
+        <v>54.70348160302677</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244811</v>
+        <v>54.38367794038174</v>
       </c>
       <c r="G32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T32" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>64.68340799244811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="E34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="F34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="K34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="L34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="N34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="O34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="P34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Q34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="R34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="S34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="W34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Y34" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
     <row r="35">
@@ -30165,7 +30165,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="J37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.6834079924478</v>
       </c>
       <c r="K37" t="n">
         <v>64.68340799244812</v>
@@ -30475,7 +30475,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="H41" t="n">
-        <v>64.68340799244791</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I41" t="n">
         <v>64.68340799244812</v>
@@ -30657,7 +30657,7 @@
         <v>64.68340799244812</v>
       </c>
       <c r="P43" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244791</v>
       </c>
       <c r="Q43" t="n">
         <v>64.68340799244812</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>16.14050760561297</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.8201079258493</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>16.14050760561297</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>16.8201079258493</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>16.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K4" t="n">
-        <v>16.8201079258493</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>16.14050760561297</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O4" t="n">
-        <v>16.8201079258493</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P4" t="n">
-        <v>16.8201079258493</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>231.3474543231443</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>181.0337736539619</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="O5" t="n">
-        <v>231.3474543231443</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>231.3474543231443</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.3474543231443</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>27.23962024682205</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>231.3474543231443</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>231.3474543231443</v>
+        <v>40.55973291537975</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
-        <v>231.3474543231443</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M7" t="n">
-        <v>222.0000824313001</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N7" t="n">
-        <v>231.3474543231443</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O7" t="n">
-        <v>231.3474543231443</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>142.4174431947572</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>216.4031014836408</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35410,7 +35410,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>5.112653919290765</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
@@ -35419,7 +35419,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>760.7889056955737</v>
+        <v>375.0444937474746</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3739449367924</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>333.1858818629451</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>51.74564177992739</v>
+        <v>49.84856776692115</v>
       </c>
       <c r="K13" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336155</v>
       </c>
       <c r="L13" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031333</v>
       </c>
       <c r="M13" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N13" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O13" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611268</v>
       </c>
       <c r="P13" t="n">
-        <v>245.2738143500302</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.7107734943721</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
-        <v>719.7892927396343</v>
+        <v>334.0448807915354</v>
       </c>
       <c r="M14" t="n">
         <v>784.1601929209636</v>
@@ -35665,7 +35665,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.6752571051561</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3739449367924</v>
+        <v>491.2320453030856</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
@@ -35747,7 +35747,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>51.74564177992739</v>
+        <v>49.84856776692117</v>
       </c>
       <c r="K16" t="n">
-        <v>193.6343067466218</v>
+        <v>191.7372327336156</v>
       </c>
       <c r="L16" t="n">
-        <v>300.0431679161396</v>
+        <v>298.1460939031333</v>
       </c>
       <c r="M16" t="n">
-        <v>329.7067599973847</v>
+        <v>327.8096859843785</v>
       </c>
       <c r="N16" t="n">
-        <v>321.1963821728968</v>
+        <v>319.2993081598906</v>
       </c>
       <c r="O16" t="n">
-        <v>299.7032790741331</v>
+        <v>297.8062050611269</v>
       </c>
       <c r="P16" t="n">
-        <v>245.2738143500302</v>
+        <v>243.376740337024</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.7107734943721</v>
+        <v>101.8136994813659</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35896,13 +35896,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>650.1321781990958</v>
+        <v>305.3540750283349</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.64156588249439</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3739449367924</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>360.987804097643</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.90820537144867</v>
+        <v>68.92827898202735</v>
       </c>
       <c r="K19" t="n">
-        <v>220.7968703381431</v>
+        <v>210.8169439487218</v>
       </c>
       <c r="L19" t="n">
-        <v>327.2057315076609</v>
+        <v>317.2258051182395</v>
       </c>
       <c r="M19" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994847</v>
       </c>
       <c r="N19" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749968</v>
       </c>
       <c r="O19" t="n">
-        <v>326.8658426656544</v>
+        <v>316.885916276233</v>
       </c>
       <c r="P19" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521302</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964721</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>375.0111895688736</v>
       </c>
       <c r="M20" t="n">
         <v>784.1601929209636</v>
@@ -36136,10 +36136,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>361.3902794697644</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3739449367924</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>685.9925074875636</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202731</v>
       </c>
       <c r="K22" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487217</v>
       </c>
       <c r="L22" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182395</v>
       </c>
       <c r="M22" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994846</v>
       </c>
       <c r="N22" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749967</v>
       </c>
       <c r="O22" t="n">
-        <v>326.8658426656543</v>
+        <v>316.885916276233</v>
       </c>
       <c r="P22" t="n">
-        <v>272.4363779415513</v>
+        <v>262.4564515521301</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964721</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O23" t="n">
-        <v>111.6493764526901</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>148.7573031217495</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36443,16 +36443,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>685.9925074875632</v>
       </c>
       <c r="N24" t="n">
-        <v>542.3044286417409</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.90820537144864</v>
+        <v>68.92827898202731</v>
       </c>
       <c r="K25" t="n">
-        <v>220.796870338143</v>
+        <v>210.8169439487217</v>
       </c>
       <c r="L25" t="n">
-        <v>327.2057315076608</v>
+        <v>317.2258051182395</v>
       </c>
       <c r="M25" t="n">
-        <v>356.869323588906</v>
+        <v>346.8893971994846</v>
       </c>
       <c r="N25" t="n">
-        <v>348.3589457644181</v>
+        <v>338.3790193749967</v>
       </c>
       <c r="O25" t="n">
-        <v>326.8658426656543</v>
+        <v>316.885916276233</v>
       </c>
       <c r="P25" t="n">
-        <v>272.4363779415515</v>
+        <v>262.4564515521301</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.8733370858934</v>
+        <v>120.8934106964721</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>744.2241516194746</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>685.9925074875634</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L29" t="n">
         <v>719.7892927396343</v>
@@ -36914,7 +36914,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3739449367926</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -36932,7 +36932,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L32" t="n">
         <v>719.7892927396343</v>
@@ -37084,13 +37084,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>361.3902794697644</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>547.9029729663082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K34" t="n">
         <v>220.796870338143</v>
@@ -37309,10 +37309,10 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>181.3064909932286</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
-        <v>784.1601929209636</v>
+        <v>286.6436999518959</v>
       </c>
       <c r="N35" t="n">
         <v>760.7889056955737</v>
@@ -37327,7 +37327,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>461.3739449367924</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144832</v>
       </c>
       <c r="K37" t="n">
         <v>220.796870338143</v>
@@ -37549,7 +37549,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M38" t="n">
-        <v>784.1601929209636</v>
+        <v>245.6773911745577</v>
       </c>
       <c r="N38" t="n">
         <v>760.7889056955737</v>
@@ -37558,13 +37558,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>36.98522210078261</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>18.22667726606008</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>461.3739449367924</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
@@ -37643,7 +37643,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>83.64156588249449</v>
+        <v>42.67525710515621</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37801,7 +37801,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37953,7 +37953,7 @@
         <v>326.8658426656543</v>
       </c>
       <c r="P43" t="n">
-        <v>272.4363779415515</v>
+        <v>272.4363779415513</v>
       </c>
       <c r="Q43" t="n">
         <v>130.8733370858934</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>83.64156588249449</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38026,7 +38026,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>520.0254142090864</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38035,7 +38035,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030854</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>90.37376681451957</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
